--- a/data/trans_camb/IP16B01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B01-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,18; 100,0</t>
+          <t>64,05; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>54,64; 100,0</t>
+          <t>52,54; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>55,51; 94,88</t>
+          <t>58,44; 94,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,91; 100,0</t>
+          <t>55,06; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>68,01; 93,94</t>
+          <t>68,32; 94,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>66,2; 95,5</t>
+          <t>65,19; 100,0</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,2; 98,06</t>
+          <t>89,5; 98,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>80,61; 95,31</t>
+          <t>78,42; 95,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75,2; 90,6</t>
+          <t>73,74; 89,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>67,58; 86,25</t>
+          <t>66,26; 86,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,82; 93,4</t>
+          <t>84,3; 93,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>76,17; 88,98</t>
+          <t>76,85; 89,02</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>74,69; 97,34</t>
+          <t>77,27; 97,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>64,71; 95,66</t>
+          <t>65,58; 95,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>59,28; 88,72</t>
+          <t>59,85; 88,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>67,25; 96,06</t>
+          <t>67,32; 96,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>73,55; 91,08</t>
+          <t>73,13; 90,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>73,19; 93,68</t>
+          <t>73,58; 93,38</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>88,29; 96,69</t>
+          <t>87,91; 97,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>80,65; 93,66</t>
+          <t>80,36; 93,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>74,08; 87,43</t>
+          <t>74,29; 87,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>72,15; 87,57</t>
+          <t>72,99; 87,44</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>83,13; 90,85</t>
+          <t>82,82; 91,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>78,64; 88,39</t>
+          <t>78,39; 88,37</t>
         </is>
       </c>
     </row>
@@ -1349,22 +1349,22 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2063,27; —</t>
+          <t>2099,55; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2066,89; —</t>
+          <t>2315,25; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5562,92; —</t>
+          <t>4649,46; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>5271,87; —</t>
+          <t>5021,03; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B01-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B01-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>79,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>83,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>87,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>88,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>83,41</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>85,51</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,96; 94,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,81; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,39; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,47; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>68,65; 92,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>66,08; 95,57</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>87,9</t>
+          <t>83,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>88,93</t>
+          <t>78,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>79,69</t>
+          <t>95,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>83,16</t>
+          <t>89,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>83,41</t>
+          <t>89,66</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>85,51</t>
+          <t>83,51</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>64,05; 100,0</t>
+          <t>73,96; 90,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>52,54; 100,0</t>
+          <t>67,61; 87,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>58,44; 94,92</t>
+          <t>90,14; 99,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>55,06; 100,0</t>
+          <t>79,59; 95,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>68,32; 94,05</t>
+          <t>85,22; 93,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,19; 100,0</t>
+          <t>76,22; 89,28</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>9519,32%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8922,44%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>21348,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>19883,93%</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>95,72</t>
+          <t>76,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>89,11</t>
+          <t>85,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>83,41</t>
+          <t>90,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>78,18</t>
+          <t>85,4</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>89,66</t>
+          <t>83,9</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>83,51</t>
+          <t>85,89</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>89,5; 98,72</t>
+          <t>59,58; 88,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>78,42; 95,34</t>
+          <t>65,59; 96,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,74; 89,91</t>
+          <t>75,92; 97,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>66,26; 86,04</t>
+          <t>64,54; 95,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>84,3; 93,56</t>
+          <t>74,36; 91,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>76,85; 89,02</t>
+          <t>73,65; 94,2</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>2682,48%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3001,69%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>9519,32%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>8922,44%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21348,25%</t>
+          <t>7557,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>19883,93%</t>
+          <t>7738,03%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>90,51</t>
+          <t>81,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>85,4</t>
+          <t>80,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>76,34</t>
+          <t>93,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>85,43</t>
+          <t>88,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>83,9</t>
+          <t>87,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>85,89</t>
+          <t>84,29</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>77,27; 97,49</t>
+          <t>74,24; 86,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>65,58; 95,53</t>
+          <t>72,36; 87,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>59,85; 88,88</t>
+          <t>87,87; 96,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>67,32; 96,18</t>
+          <t>81,16; 93,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>73,13; 90,73</t>
+          <t>83,16; 90,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>73,58; 93,38</t>
+          <t>79,38; 88,8</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>7549,52%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7489,55%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>2682,48%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>3001,69%</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>7557,89%</t>
+          <t>17398,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7738,03%</t>
+          <t>16776,25%</t>
         </is>
       </c>
     </row>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2147,22; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2188,07; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1203,187 +1203,30 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5550,15; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5296,26; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>93,44</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>88,32</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>81,27</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>80,63</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>87,41</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>84,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>87,91; 97,08</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>80,36; 93,73</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>74,29; 87,23</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>72,99; 87,44</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>82,82; 91,18</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>78,39; 88,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>7549,52%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>7489,55%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>17445,82%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>16821,91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>2099,55; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>2315,25; —</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>4649,46; —</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>5021,03; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
